--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-7.594313250896731</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.52682538247208</v>
+        <v>-21.4419864463105</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01581118291153843</v>
+        <v>0.006771139806741712</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.044873065791867</v>
+        <v>-9.071263924859474</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.288494809785616</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.66778522845897</v>
+        <v>-21.58292184726306</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1470076821852011</v>
+        <v>-0.1221373042532047</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.534881203476502</v>
+        <v>-8.551464714769077</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.980226541107651</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.85009629452623</v>
+        <v>-21.78605030456964</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.315204185427676</v>
+        <v>-0.2887546582776662</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.42577323722756</v>
+        <v>-8.448380004980175</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.579137773574613</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.97281525589266</v>
+        <v>-21.90811902802277</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3546829158780143</v>
+        <v>-0.3315236903494381</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.869086470326289</v>
+        <v>-7.904727330386099</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.08744843100824</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.9105977545043</v>
+        <v>-21.86740826784197</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4794014810530146</v>
+        <v>-0.4582858603948089</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.176436422456114</v>
+        <v>-7.205819353726273</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.46983978790643</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.18135584380092</v>
+        <v>-22.13516939592917</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6283450752535784</v>
+        <v>-0.5930415566675856</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.566581705877144</v>
+        <v>-6.596331312662321</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.72379281818985</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.56466864918765</v>
+        <v>-22.51783196340261</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.796394908290046</v>
+        <v>-0.7624309775855879</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.126722647067672</v>
+        <v>-6.151715250171342</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.8327707345327</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.82222153093673</v>
+        <v>-22.77220699068819</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.93831788862972</v>
+        <v>-0.9034983817235517</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.796382231083963</v>
+        <v>-5.832037758164375</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.78356102797001</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.25973875545695</v>
+        <v>-23.21961956510705</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.032680610168045</v>
+        <v>-0.9942187931460255</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.476264728458974</v>
+        <v>-5.504909419692228</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.57164443899655</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.66377606095254</v>
+        <v>-23.63012013768069</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.301693324013174</v>
+        <v>-1.259222521360283</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.103272616568298</v>
+        <v>-5.149996855195404</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.19221536600773</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.1264961158717</v>
+        <v>-24.09653628179124</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.234049025002538</v>
+        <v>-1.199733085803662</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.947875533303407</v>
+        <v>-4.989603206912526</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.642885506124383</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.69727300056342</v>
+        <v>-24.67082347341341</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.163353985706948</v>
+        <v>-1.122403664189669</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.887080732913319</v>
+        <v>-4.920682877109625</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.942056112042764</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.30227782233041</v>
+        <v>-25.27980794677007</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.102906304804412</v>
+        <v>-1.05653896367859</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.773435768291881</v>
+        <v>-4.811452685689011</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.105332868306869</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.90097093623221</v>
+        <v>-25.88022688009589</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.059907489409895</v>
+        <v>-1.012894799377641</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.789197926430815</v>
+        <v>-4.817519943210853</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.15907535481765</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.65874500007313</v>
+        <v>-26.63321216171067</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9779921793547348</v>
+        <v>-0.9372080840709303</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.759844329201858</v>
+        <v>-4.781566186711561</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.142703813123504</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.42546105747363</v>
+        <v>-27.41070114574242</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8524229269848913</v>
+        <v>-0.8161611630529831</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.78995083348832</v>
+        <v>-4.806505010739694</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.089629442325386</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.31314336727878</v>
+        <v>-28.28956368715965</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6877416196797281</v>
+        <v>-0.6597227213254386</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.033726493886433</v>
+        <v>-5.038292826300132</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.044479951756125</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.95327570338456</v>
+        <v>-28.9371762037718</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4348675175022863</v>
+        <v>-0.3999551194656467</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.335001764046333</v>
+        <v>-5.32215345400008</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.050131639125023</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.38138892319626</v>
+        <v>-29.36683190525002</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2308394829321917</v>
+        <v>-0.1988653780225679</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.67298369776303</v>
+        <v>-5.665865303764802</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.137004886938439</v>
       </c>
       <c r="E21" t="n">
-        <v>-29.98305944228002</v>
+        <v>-29.97056069622475</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1768205766517774</v>
+        <v>0.2127498881167354</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.028864285619503</v>
+        <v>-6.015800859271106</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.345232949802959</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.5215322140986</v>
+        <v>-30.49954879472151</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2419421481190845</v>
+        <v>0.2679223306098706</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.287839868366855</v>
+        <v>-6.271994597111183</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.697530295097067</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.84307730672873</v>
+        <v>-30.82713914434258</v>
       </c>
       <c r="F23" t="n">
-        <v>0.528183722163221</v>
+        <v>0.5542372397570107</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.601797222339532</v>
+        <v>-6.590224943085544</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.2053255289101167</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.0276177599273</v>
+        <v>-31.00303827790388</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7127877324510624</v>
+        <v>0.7405279574139378</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.857115827950431</v>
+        <v>-6.834103272627862</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.1186350480630821</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.31251485708303</v>
+        <v>-31.28417817328239</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9533904273925478</v>
+        <v>0.9744571579820843</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.929971808281198</v>
+        <v>-6.903282719794709</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.2845880874694441</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.23443497291496</v>
+        <v>-31.20740365394779</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0049694498385</v>
+        <v>1.032308776238289</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.091426371054197</v>
+        <v>-7.048285774460539</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3043391198717843</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.3243486982044</v>
+        <v>-31.2928072704025</v>
       </c>
       <c r="F27" t="n">
-        <v>1.24092269924955</v>
+        <v>1.268105577429597</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.339313686227386</v>
+        <v>-7.297219337103248</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.1960193725084147</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.14490503466459</v>
+        <v>-31.11331960580088</v>
       </c>
       <c r="F28" t="n">
-        <v>1.390100965779726</v>
+        <v>1.410048113796738</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.529867617872263</v>
+        <v>-7.475971206171392</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.01188833825823843</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.95217549496393</v>
+        <v>-30.92041650635645</v>
       </c>
       <c r="F29" t="n">
-        <v>1.406855592312643</v>
+        <v>1.428054326087586</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.839160859293903</v>
+        <v>-7.782125705184473</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.296847437480196</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.82695825108851</v>
+        <v>-30.7847636773236</v>
       </c>
       <c r="F30" t="n">
-        <v>1.535211578596628</v>
+        <v>1.549658593888362</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.890050531771621</v>
+        <v>-7.829377956553206</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.6307276533605879</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.55591659939361</v>
+        <v>-30.52082086359946</v>
       </c>
       <c r="F31" t="n">
-        <v>1.442535564427388</v>
+        <v>1.469865112813443</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.82892816792145</v>
+        <v>-7.780820340351007</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.9870136129796404</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.13275349903465</v>
+        <v>-30.09262208616758</v>
       </c>
       <c r="F32" t="n">
-        <v>1.422911090863592</v>
+        <v>1.443063577169015</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.839742651111066</v>
+        <v>-7.799877689118241</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.344365688387446</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.65727313619284</v>
+        <v>-29.62151005096135</v>
       </c>
       <c r="F33" t="n">
-        <v>1.358219752000573</v>
+        <v>1.385534633366027</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.069301079540191</v>
+        <v>-8.025412464895895</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.679428826069182</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.08910209216118</v>
+        <v>-29.04723263735293</v>
       </c>
       <c r="F34" t="n">
-        <v>1.35987223632159</v>
+        <v>1.384415050793503</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.08674994504821</v>
+        <v>-8.036691403737867</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.977144679366074</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.59109807468349</v>
+        <v>-28.55196890822414</v>
       </c>
       <c r="F35" t="n">
-        <v>1.380254505949759</v>
+        <v>1.408068066015638</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.059865296287045</v>
+        <v>-8.018313626925135</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.225327870460077</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.96642966729777</v>
+        <v>-27.93072769465213</v>
       </c>
       <c r="F36" t="n">
-        <v>1.311216839982053</v>
+        <v>1.33545164702135</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.89214302671066</v>
+        <v>-7.866021063020733</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.415968028146864</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.34333552012319</v>
+        <v>-27.30930558782604</v>
       </c>
       <c r="F37" t="n">
-        <v>1.400402103248315</v>
+        <v>1.426988522590599</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.780072322300369</v>
+        <v>-7.751852974664536</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.548348262651297</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.75936565040111</v>
+        <v>-26.73430704570474</v>
       </c>
       <c r="F38" t="n">
-        <v>1.230973570275378</v>
+        <v>1.264761496732627</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.691899083455558</v>
+        <v>-7.669600323135559</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.623669983303096</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.00420720523399</v>
+        <v>-25.98759435990021</v>
       </c>
       <c r="F39" t="n">
-        <v>1.317934335417194</v>
+        <v>1.343890072873645</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.606512578524889</v>
+        <v>-7.596465669413378</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.647534229188134</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.39624942331938</v>
+        <v>-25.37983702726715</v>
       </c>
       <c r="F40" t="n">
-        <v>1.316848975892739</v>
+        <v>1.34976177012081</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.24501452177833</v>
+        <v>-7.23751967425135</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.630771146255568</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.8307282210096</v>
+        <v>-24.82118976861225</v>
       </c>
       <c r="F41" t="n">
-        <v>1.371058284033092</v>
+        <v>1.398299830295542</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.243024695983496</v>
+        <v>-7.247972370932814</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.583435926102037</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.15943335513411</v>
+        <v>-24.14654104402605</v>
       </c>
       <c r="F42" t="n">
-        <v>1.369635583034819</v>
+        <v>1.40201058650753</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.971083467025085</v>
+        <v>-6.973131960902323</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.520033206790011</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.48078542293078</v>
+        <v>-23.46557083356094</v>
       </c>
       <c r="F43" t="n">
-        <v>1.328729262579342</v>
+        <v>1.360967373859779</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.886132083705571</v>
+        <v>-6.89331403479307</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.457860101808501</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.81018968503725</v>
+        <v>-22.80048500640643</v>
       </c>
       <c r="F44" t="n">
-        <v>1.439783053561315</v>
+        <v>1.471874494635745</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.812161409809148</v>
+        <v>-6.823264344403912</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.409154167380822</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.98078433708573</v>
+        <v>-21.97236057825404</v>
       </c>
       <c r="F45" t="n">
-        <v>1.485808164206452</v>
+        <v>1.521204573922917</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.647744108874798</v>
+        <v>-6.663662715233474</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.392213391469913</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.46521411793522</v>
+        <v>-21.45994865753955</v>
       </c>
       <c r="F46" t="n">
-        <v>1.468818865343923</v>
+        <v>1.505662421092994</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.516102709976247</v>
+        <v>-6.521260612220842</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.421830074501816</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.78544660315936</v>
+        <v>-20.79223743369751</v>
       </c>
       <c r="F47" t="n">
-        <v>1.541454840365678</v>
+        <v>1.572284917668444</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.503567296369477</v>
+        <v>-6.512875965444083</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.505977963297772</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.13822031808969</v>
+        <v>-20.14859967966816</v>
       </c>
       <c r="F48" t="n">
-        <v>1.590115125712083</v>
+        <v>1.618593590711862</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.459957355116596</v>
+        <v>-6.472018535057274</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.657245309377767</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.38872089837103</v>
+        <v>-19.4084529300859</v>
       </c>
       <c r="F49" t="n">
-        <v>1.742627694925495</v>
+        <v>1.775721382407642</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.210006879045569</v>
+        <v>-6.218518640000868</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.877821962899157</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.98296755146516</v>
+        <v>-19.00827305100831</v>
       </c>
       <c r="F50" t="n">
-        <v>1.724557925545377</v>
+        <v>1.761944161056676</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.206799690540873</v>
+        <v>-6.206648131327999</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.167048020289581</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.40789322973742</v>
+        <v>-18.43129201660248</v>
       </c>
       <c r="F51" t="n">
-        <v>1.694089634750763</v>
+        <v>1.72139962710935</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.278883207786667</v>
+        <v>-6.275514682055362</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.52698639466421</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.95137732453237</v>
+        <v>-17.961199339328</v>
       </c>
       <c r="F52" t="n">
-        <v>1.71838799887933</v>
+        <v>1.756918261997487</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.269550093677726</v>
+        <v>-6.266831805859721</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.943867855095363</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.55719625688049</v>
+        <v>-17.57355487385718</v>
       </c>
       <c r="F53" t="n">
-        <v>1.810047099620252</v>
+        <v>1.851246760487744</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.182242209048359</v>
+        <v>-6.184647600426881</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.408722923462741</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.93415099977458</v>
+        <v>-16.95603908351776</v>
       </c>
       <c r="F54" t="n">
-        <v>1.860208310074799</v>
+        <v>1.902498219473614</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.179079021605465</v>
+        <v>-6.175431822482746</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.908968536055354</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.73348171292206</v>
+        <v>-16.74777716900092</v>
       </c>
       <c r="F55" t="n">
-        <v>1.853461480598457</v>
+        <v>1.889786801619635</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.387037817696559</v>
+        <v>-6.378188715267443</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.419693474183031</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.18709608348938</v>
+        <v>-16.19789589965839</v>
       </c>
       <c r="F56" t="n">
-        <v>1.899100359701108</v>
+        <v>1.932956732254494</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.310901313758093</v>
+        <v>-6.301416640436278</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.925584446782755</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.09189734177681</v>
+        <v>-16.10274115900762</v>
       </c>
       <c r="F57" t="n">
-        <v>1.941693387525671</v>
+        <v>1.977177799365739</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.463144987593824</v>
+        <v>-6.441897363750211</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.405539461777471</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.88991291207708</v>
+        <v>-15.89638595716888</v>
       </c>
       <c r="F58" t="n">
-        <v>1.847936902838843</v>
+        <v>1.884125331667747</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.62880409627237</v>
+        <v>-6.608592941884543</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.837066057944432</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.63780149497088</v>
+        <v>-15.64268561283093</v>
       </c>
       <c r="F59" t="n">
-        <v>1.887117403870299</v>
+        <v>1.922210695161015</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.413506900874037</v>
+        <v>-6.405176033172814</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.209865140711703</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41445210526274</v>
+        <v>-15.41137691994345</v>
       </c>
       <c r="F60" t="n">
-        <v>1.943438762977159</v>
+        <v>1.977637366011229</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.427919693117702</v>
+        <v>-6.424433831221592</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.508626918633135</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29646081353661</v>
+        <v>-15.29196781622592</v>
       </c>
       <c r="F61" t="n">
-        <v>1.900058605047023</v>
+        <v>1.934716774726583</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.291643515709315</v>
+        <v>-6.298189895904113</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.724437116157543</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.25754431887597</v>
+        <v>-15.2436644283808</v>
       </c>
       <c r="F62" t="n">
-        <v>1.892475755396438</v>
+        <v>1.932228270231323</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.367589348379972</v>
+        <v>-6.373333931448596</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.857120997222808</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.20247454552704</v>
+        <v>-15.18016600719331</v>
       </c>
       <c r="F63" t="n">
-        <v>1.875750462904722</v>
+        <v>1.909621502478709</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.401783062407175</v>
+        <v>-6.416547863145258</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.900170131470429</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.24452000458251</v>
+        <v>-15.21569930910204</v>
       </c>
       <c r="F64" t="n">
-        <v>1.732497672697247</v>
+        <v>1.770030578414553</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.400746592951388</v>
+        <v>-6.418703915173567</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.85769357496881</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.30759797117944</v>
+        <v>-15.27247045684066</v>
       </c>
       <c r="F65" t="n">
-        <v>1.714115006877647</v>
+        <v>1.752547489858465</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.499890763205557</v>
+        <v>-6.517437408850914</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.737968521379736</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.3178306625519</v>
+        <v>-15.27889461186379</v>
       </c>
       <c r="F66" t="n">
-        <v>1.796856559093315</v>
+        <v>1.823570092614139</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.448981534700372</v>
+        <v>-6.460588037002427</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.544088081559191</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.20987650192355</v>
+        <v>-15.16875506516593</v>
       </c>
       <c r="F67" t="n">
-        <v>1.614628606142795</v>
+        <v>1.638237620303127</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.211693586414654</v>
+        <v>-6.236182621811031</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.288984004761443</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.34264726140836</v>
+        <v>-15.29276472434522</v>
       </c>
       <c r="F68" t="n">
-        <v>1.601594513835599</v>
+        <v>1.630400542295462</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.330428007184551</v>
+        <v>-6.356373966627269</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.984258672532732</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.25650296041332</v>
+        <v>-15.20475771173389</v>
       </c>
       <c r="F69" t="n">
-        <v>1.551120406941569</v>
+        <v>1.584204316409983</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.21207981795714</v>
+        <v>-6.221774718574233</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.635650783718107</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.30690373220434</v>
+        <v>-15.25309043362021</v>
       </c>
       <c r="F70" t="n">
-        <v>1.491239850835595</v>
+        <v>1.514599525645715</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.142758589591153</v>
+        <v>-6.161708380207316</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.257243795731178</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.34338550144526</v>
+        <v>-15.28808105576672</v>
       </c>
       <c r="F71" t="n">
-        <v>1.386996446419235</v>
+        <v>1.412360614044789</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.147476481217726</v>
+        <v>-6.162006609626197</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.855471406224027</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.45418506407015</v>
+        <v>-15.39539964550237</v>
       </c>
       <c r="F72" t="n">
-        <v>1.306660285582088</v>
+        <v>1.329105716108095</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.000175593324446</v>
+        <v>-6.010139389319219</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.431271818046276</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.5738141730967</v>
+        <v>-15.51707724840615</v>
       </c>
       <c r="F73" t="n">
-        <v>1.223913844359553</v>
+        <v>1.241528936101047</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.144362183843501</v>
+        <v>-6.149857427561914</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.995415656742641</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.6755690730178</v>
+        <v>-15.6211446485753</v>
       </c>
       <c r="F74" t="n">
-        <v>1.091323978128819</v>
+        <v>1.114605428829068</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.053294652933477</v>
+        <v>-6.054497348622738</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.548012119386199</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.94298797062431</v>
+        <v>-15.88438833431747</v>
       </c>
       <c r="F75" t="n">
-        <v>1.051542129252732</v>
+        <v>1.077238749345237</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.09081778063705</v>
+        <v>-6.090407104060229</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.090627941854343</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.98020309089527</v>
+        <v>-15.92455641473604</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8218810316794026</v>
+        <v>0.8540849199117714</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.236510185271115</v>
+        <v>-6.23708708808141</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.630616894347189</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.02472727643226</v>
+        <v>-15.97290869264983</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6774499908170012</v>
+        <v>0.7042759714957635</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.182305766137628</v>
+        <v>-6.182149317917887</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.166903030478166</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.14920139126392</v>
+        <v>-16.10081000129519</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6937841627593641</v>
+        <v>0.7190261052132459</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.164490225114591</v>
+        <v>-6.165873814057927</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.706324695089809</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.29035679752549</v>
+        <v>-16.24164762211041</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4156681181280403</v>
+        <v>0.445520394057423</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.174605580322238</v>
+        <v>-6.169917022736866</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.257151976832086</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.74639358005758</v>
+        <v>-16.69884309926996</v>
       </c>
       <c r="F80" t="n">
-        <v>0.391775541569427</v>
+        <v>0.4226153968859265</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.142915037810895</v>
+        <v>-6.127451109090843</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.823748680033917</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.19494040406956</v>
+        <v>-17.15799906818315</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2368086909088238</v>
+        <v>0.2680494447884104</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.248630033294197</v>
+        <v>-6.225949930438579</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.42126575673692</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.62701127494003</v>
+        <v>-17.58890146641243</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.07074406406819479</v>
+        <v>-0.04399141849243619</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.298928135941018</v>
+        <v>-6.275636907227035</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.060010931687849</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.09677149974755</v>
+        <v>-18.0667676646053</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.08617376974017836</v>
+        <v>-0.05745085439705305</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.351015615101129</v>
+        <v>-6.318845949916829</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.7493339568146035</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.88353492980584</v>
+        <v>-18.85785297673394</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1937612548535087</v>
+        <v>-0.1682161939738781</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.396126481462154</v>
+        <v>-6.357019315533702</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5056073072421127</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.57420004088805</v>
+        <v>-19.5521750649526</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3490850030153966</v>
+        <v>-0.3228114801125957</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.487585132921532</v>
+        <v>-6.441501354193991</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3347129957690771</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.22016496218605</v>
+        <v>-20.19895156139051</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5039394065180607</v>
+        <v>-0.4701612580745453</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.741569039657763</v>
+        <v>-6.687481956689084</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2468203671885748</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98102154485656</v>
+        <v>-20.96306911164125</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5999252783362019</v>
+        <v>-0.5637270714935636</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.063295025541969</v>
+        <v>-7.003600251696937</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2497550935749792</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82304541953159</v>
+        <v>-21.80007197626395</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7263061058459532</v>
+        <v>-0.6942146647715236</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.372353594633997</v>
+        <v>-7.30315948044655</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3445603785076152</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81033635524326</v>
+        <v>-22.79116655931809</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9209472472315712</v>
+        <v>-0.8868219793005049</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.450137693886614</v>
+        <v>-7.374954546287196</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.538373809168758</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86078348166174</v>
+        <v>-23.84970010309444</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.173836016429614</v>
+        <v>-1.145533555677043</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.82629788222705</v>
+        <v>-7.757015765915998</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.8286885890158788</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.06868596323608</v>
+        <v>-25.06546410771078</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.105609925601816</v>
+        <v>-1.085516107378795</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.1882848396603</v>
+        <v>-8.113795931035984</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.212512289124603</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34838839965794</v>
+        <v>-26.349635096409</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.327575726366621</v>
+        <v>-1.314981644677448</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.451538303416202</v>
+        <v>-8.371627486176477</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.689130648770859</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.5822881752471</v>
+        <v>-27.58756830266336</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.61262438273523</v>
+        <v>-1.590012725975749</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.748061458901461</v>
+        <v>-8.668923104746709</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.24350754360289</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.09290085049678</v>
+        <v>-29.10460268843274</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.866784293718671</v>
+        <v>-1.854674223709323</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.08562782703447</v>
+        <v>-9.005917459076288</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.867933658227284</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.74564673338141</v>
+        <v>-30.75809903387144</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.137659719180093</v>
+        <v>-2.133156943855665</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.346974578112276</v>
+        <v>-9.273849702403828</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.554229492279849</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.56656467447419</v>
+        <v>-32.57715181884448</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.176233983360052</v>
+        <v>-2.178243365182355</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.693145598331055</v>
+        <v>-9.623154576024302</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.274000156681027</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.29664731248311</v>
+        <v>-34.31146344779329</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.548341185007816</v>
+        <v>-2.552438172762291</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.05243382397377</v>
+        <v>-9.986764683737366</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.030038415934778</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.29263814497667</v>
+        <v>-36.31334797806493</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.949376640287115</v>
+        <v>-2.954094531913689</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.45779116132342</v>
+        <v>-10.40099556855047</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.781495722866784</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.34195337536768</v>
+        <v>-38.37670932518458</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.225981981796563</v>
+        <v>-3.228563377422294</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.78303234314494</v>
+        <v>-10.73073463668955</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.546172825190731</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.5339909387211</v>
+        <v>-40.56564725818437</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.586536460217806</v>
+        <v>-3.588198722552557</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.99961534734927</v>
+        <v>-10.94942480285352</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.260929333306821</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.43314765670511</v>
+        <v>-42.46124233466584</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.004253206927019</v>
+        <v>-4.010110237153583</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.2476444437216</v>
+        <v>-11.20600477223608</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.004068150939672</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.71741389009945</v>
+        <v>-44.74442076403228</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.253538778064145</v>
+        <v>-4.255142372316493</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.40414644253841</v>
+        <v>-11.36310811889753</v>
       </c>
     </row>
   </sheetData>
